--- a/data/outputs/OR_elsevier/34.xlsx
+++ b/data/outputs/OR_elsevier/34.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS175"/>
+  <dimension ref="A1:BU175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -943,6 +953,12 @@
           <t>2-s2.0-84926526601</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84921020284</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1382,6 +1404,12 @@
         <is>
           <t>2-s2.0-84921044718</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -1596,6 +1624,12 @@
           <t>2-s2.0-84938588818</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1815,6 +1849,12 @@
           <t>2-s2.0-84928975497</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2036,6 +2076,12 @@
           <t>2-s2.0-84940526943</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2257,6 +2303,12 @@
           <t>2-s2.0-84926639675</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2477,6 +2529,12 @@
         <is>
           <t>2-s2.0-84924425553</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -2691,6 +2749,12 @@
           <t>2-s2.0-84921061647</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2912,6 +2976,12 @@
           <t>2-s2.0-84922351651</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3138,6 +3208,12 @@
         <is>
           <t>2-s2.0-84922344542</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -3352,6 +3428,12 @@
           <t>2-s2.0-84926640224</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3581,6 +3663,12 @@
           <t>2-s2.0-84937015920</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3802,6 +3890,12 @@
           <t>2-s2.0-84941764254</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4031,6 +4125,12 @@
           <t>2-s2.0-84921023915</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4245,6 +4345,12 @@
         <is>
           <t>2-s2.0-84949658149</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -4459,6 +4565,12 @@
           <t>2-s2.0-84930816970</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4692,6 +4804,12 @@
           <t>2-s2.0-84924370749</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4917,6 +5035,12 @@
           <t>2-s2.0-84949639376</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5142,6 +5266,12 @@
           <t>2-s2.0-84921022475</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5362,6 +5492,12 @@
         <is>
           <t>2-s2.0-84926631920</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -5574,6 +5710,12 @@
           <t>2-s2.0-84936972115</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5793,6 +5935,12 @@
           <t>2-s2.0-84930664033</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6018,6 +6166,12 @@
           <t>2-s2.0-84941788389</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6247,6 +6401,12 @@
           <t>2-s2.0-84930794995</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6465,6 +6625,12 @@
         <is>
           <t>2-s2.0-84921033451</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -6679,6 +6845,12 @@
           <t>2-s2.0-84941696975</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6908,6 +7080,12 @@
           <t>2-s2.0-84943578133</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7126,6 +7304,12 @@
         <is>
           <t>2-s2.0-84924390995</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -7340,6 +7524,12 @@
           <t>2-s2.0-84949643343</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7560,6 +7750,12 @@
         <is>
           <t>2-s2.0-84938630571</t>
         </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -7774,6 +7970,12 @@
           <t>2-s2.0-84938675739</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7997,6 +8199,12 @@
           <t>2-s2.0-84930817006</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8226,6 +8434,12 @@
           <t>2-s2.0-84936953270</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8441,6 +8655,12 @@
           <t>2-s2.0-84922346413</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8662,6 +8882,12 @@
           <t>2-s2.0-84949642753</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8891,6 +9117,12 @@
           <t>2-s2.0-84938591663</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9106,6 +9338,12 @@
           <t>2-s2.0-84938651570</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9335,6 +9573,12 @@
           <t>2-s2.0-84936966814</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9554,6 +9798,12 @@
           <t>2-s2.0-84926663362</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9779,6 +10029,12 @@
           <t>2-s2.0-84921029078</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10004,6 +10260,12 @@
           <t>2-s2.0-84946811806</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10219,6 +10481,12 @@
           <t>2-s2.0-84943534615</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10448,6 +10716,12 @@
           <t>2-s2.0-84922362026</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10669,6 +10943,12 @@
           <t>2-s2.0-84922380609</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10898,6 +11178,12 @@
           <t>2-s2.0-84921044716</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11127,6 +11413,12 @@
           <t>2-s2.0-84939820958</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11349,6 +11641,12 @@
         <is>
           <t>2-s2.0-84938587394</t>
         </is>
+      </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -11561,6 +11859,12 @@
           <t>2-s2.0-84922364623</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11784,6 +12088,12 @@
           <t>2-s2.0-84949640049</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12015,6 +12325,12 @@
           <t>2-s2.0-84946762640</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12244,6 +12560,12 @@
           <t>2-s2.0-84946762631</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12472,6 +12794,12 @@
         <is>
           <t>2-s2.0-84930787527</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -12684,6 +13012,12 @@
           <t>2-s2.0-84926648371</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12909,6 +13243,12 @@
           <t>2-s2.0-84921056872</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13126,6 +13466,12 @@
           <t>2-s2.0-84946782406</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13347,6 +13693,12 @@
           <t>2-s2.0-84930949990</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13573,6 +13925,12 @@
         <is>
           <t>2-s2.0-84941755828</t>
         </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -13785,6 +14143,12 @@
           <t>2-s2.0-84936933430</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14002,6 +14366,12 @@
           <t>2-s2.0-84936966815</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14222,6 +14592,12 @@
         <is>
           <t>2-s2.0-84930815495</t>
         </is>
+      </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -14436,6 +14812,12 @@
           <t>2-s2.0-84928948613</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14649,6 +15031,12 @@
           <t>2-s2.0-84922390245</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14868,6 +15256,12 @@
           <t>2-s2.0-84921021475</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15099,6 +15493,12 @@
           <t>2-s2.0-84946709481</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15313,6 +15713,12 @@
         <is>
           <t>2-s2.0-84928951006</t>
         </is>
+      </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="68">
@@ -15525,6 +15931,12 @@
           <t>2-s2.0-84928975529</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15736,6 +16148,12 @@
           <t>2-s2.0-84924414980</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15951,6 +16369,12 @@
           <t>2-s2.0-84924349243</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16171,6 +16595,12 @@
         <is>
           <t>2-s2.0-84922348268</t>
         </is>
+      </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -16383,6 +16813,12 @@
           <t>2-s2.0-84941760335</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16612,6 +17048,12 @@
           <t>2-s2.0-84938634601</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16831,6 +17273,12 @@
           <t>2-s2.0-84924366658</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -17053,6 +17501,12 @@
         <is>
           <t>2-s2.0-84921054340</t>
         </is>
+      </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -17263,6 +17717,12 @@
           <t>2-s2.0-84943529371</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17491,6 +17951,12 @@
         <is>
           <t>2-s2.0-84943576394</t>
         </is>
+      </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -17705,6 +18171,12 @@
           <t>2-s2.0-84930798162</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17924,6 +18396,12 @@
           <t>2-s2.0-84922341370</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -18151,6 +18629,12 @@
           <t>2-s2.0-84949638565</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18370,6 +18854,12 @@
           <t>2-s2.0-84949653928</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18587,6 +19077,12 @@
           <t>2-s2.0-84941779643</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18806,6 +19302,12 @@
           <t>2-s2.0-84938567608</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -19021,6 +19523,12 @@
           <t>2-s2.0-84930788878</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19250,6 +19758,12 @@
           <t>2-s2.0-84924363772</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19468,6 +19982,12 @@
         <is>
           <t>2-s2.0-84924591953</t>
         </is>
+      </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -19680,6 +20200,12 @@
           <t>2-s2.0-84941753152</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19905,6 +20431,12 @@
           <t>2-s2.0-84936984669</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -20126,6 +20658,12 @@
           <t>2-s2.0-84936976820</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -20345,6 +20883,12 @@
           <t>2-s2.0-84930801066</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20568,6 +21112,12 @@
           <t>2-s2.0-84928974741</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20791,6 +21341,12 @@
           <t>2-s2.0-84924370744</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -21014,6 +21570,12 @@
           <t>2-s2.0-84922380794</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -21239,6 +21801,12 @@
           <t>2-s2.0-84949634664</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21464,6 +22032,12 @@
           <t>2-s2.0-84928974304</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21693,6 +22267,12 @@
           <t>2-s2.0-84926688507</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21917,6 +22497,12 @@
         <is>
           <t>2-s2.0-84924370740</t>
         </is>
+      </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -22131,6 +22717,12 @@
           <t>2-s2.0-84934771307</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -22352,6 +22944,12 @@
           <t>2-s2.0-84941776990</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22567,6 +23165,12 @@
           <t>2-s2.0-84938634564</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22786,6 +23390,12 @@
           <t>2-s2.0-84938573026</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -23011,6 +23621,12 @@
           <t>2-s2.0-84938564294</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -23226,6 +23842,12 @@
           <t>2-s2.0-84936939324</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -23450,6 +24072,12 @@
         <is>
           <t>2-s2.0-84926643317</t>
         </is>
+      </c>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -23662,6 +24290,12 @@
           <t>2-s2.0-84949663225</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23890,6 +24524,12 @@
         <is>
           <t>2-s2.0-84949671596</t>
         </is>
+      </c>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="107">
@@ -24104,6 +24744,12 @@
           <t>2-s2.0-84946781421</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -24329,6 +24975,12 @@
           <t>2-s2.0-84946771966</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24555,6 +25207,12 @@
         <is>
           <t>2-s2.0-84946750643</t>
         </is>
+      </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="110">
@@ -24767,6 +25425,12 @@
           <t>2-s2.0-84946771956</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24986,6 +25650,12 @@
           <t>2-s2.0-84928964060</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -25206,6 +25876,12 @@
         <is>
           <t>2-s2.0-84943550039</t>
         </is>
+      </c>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="113">
@@ -25420,6 +26096,12 @@
           <t>2-s2.0-84943516236</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25631,6 +26313,12 @@
           <t>2-s2.0-84941773069</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25847,6 +26535,12 @@
         <is>
           <t>2-s2.0-84941772333</t>
         </is>
+      </c>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="116">
@@ -26061,6 +26755,12 @@
           <t>2-s2.0-84930799870</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -26272,6 +26972,12 @@
           <t>2-s2.0-84928940251</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -26497,6 +27203,12 @@
           <t>2-s2.0-84928946526</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26717,6 +27429,12 @@
         <is>
           <t>2-s2.0-84926638803</t>
         </is>
+      </c>
+      <c r="BT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="120">
@@ -26931,6 +27649,12 @@
           <t>2-s2.0-84922381181</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -27144,6 +27868,12 @@
           <t>2-s2.0-84922347401</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -27355,6 +28085,12 @@
           <t>2-s2.0-84946743999</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -27566,6 +28302,12 @@
           <t>2-s2.0-84946781422</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27777,6 +28519,12 @@
           <t>2-s2.0-84943576826</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27998,6 +28746,12 @@
           <t>2-s2.0-84943567958</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -28217,6 +28971,12 @@
           <t>2-s2.0-84941759419</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -28440,6 +29200,12 @@
           <t>2-s2.0-84930817621</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28655,6 +29421,12 @@
           <t>2-s2.0-84928956366</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28879,6 +29651,12 @@
         <is>
           <t>2-s2.0-84926625546</t>
         </is>
+      </c>
+      <c r="BT129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="130">
@@ -29093,6 +29871,12 @@
         <v>2403108</v>
       </c>
       <c r="BS130" t="inlineStr"/>
+      <c r="BT130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -29312,6 +30096,12 @@
           <t>2-s2.0-84921030548</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -29540,6 +30330,12 @@
         <is>
           <t>2-s2.0-84949677295</t>
         </is>
+      </c>
+      <c r="BT132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -29754,6 +30550,12 @@
           <t>2-s2.0-84943535894</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29975,6 +30777,12 @@
           <t>2-s2.0-84943577925</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -30193,6 +31001,12 @@
         <is>
           <t>2-s2.0-84941769295</t>
         </is>
+      </c>
+      <c r="BT135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="136">
@@ -30407,6 +31221,12 @@
           <t>2-s2.0-84936972116</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -30627,6 +31447,12 @@
         <is>
           <t>2-s2.0-84936972748</t>
         </is>
+      </c>
+      <c r="BT137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -30841,6 +31667,12 @@
           <t>2-s2.0-84936970887</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -31059,6 +31891,12 @@
         <is>
           <t>2-s2.0-84930806655</t>
         </is>
+      </c>
+      <c r="BT139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -31273,6 +32111,12 @@
           <t>2-s2.0-84926633503</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -31486,6 +32330,12 @@
           <t>2-s2.0-84924412709</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -31707,6 +32557,12 @@
           <t>2-s2.0-84949650923</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31936,6 +32792,12 @@
           <t>2-s2.0-84946761656</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -32157,6 +33019,12 @@
           <t>2-s2.0-84936970886</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -32376,6 +33244,12 @@
           <t>2-s2.0-84930800639</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -32594,6 +33468,12 @@
         <is>
           <t>2-s2.0-84930802138</t>
         </is>
+      </c>
+      <c r="BT146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="147">
@@ -32808,6 +33688,12 @@
           <t>2-s2.0-84928949725</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -33019,6 +33905,12 @@
           <t>2-s2.0-84928955919</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -33230,6 +34122,12 @@
           <t>2-s2.0-84926674786</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -33449,6 +34347,12 @@
           <t>2-s2.0-84924368392</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -33672,6 +34576,12 @@
           <t>2-s2.0-84921062525</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -33893,6 +34803,12 @@
           <t>2-s2.0-84946761657</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -34112,6 +35028,12 @@
           <t>2-s2.0-84943521275</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -34331,6 +35253,12 @@
           <t>2-s2.0-84941767298</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -34560,6 +35488,12 @@
           <t>2-s2.0-84938652009</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -34778,6 +35712,12 @@
         <is>
           <t>2-s2.0-84938635881</t>
         </is>
+      </c>
+      <c r="BT156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="157">
@@ -34990,6 +35930,12 @@
           <t>2-s2.0-84938603208</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -35208,6 +36154,12 @@
         <is>
           <t>2-s2.0-84936948828</t>
         </is>
+      </c>
+      <c r="BT158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -35420,6 +36372,12 @@
           <t>2-s2.0-84930800988</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -35639,6 +36597,12 @@
           <t>2-s2.0-84928963625</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -35866,6 +36830,12 @@
           <t>2-s2.0-84928962841</t>
         </is>
       </c>
+      <c r="BT161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -36081,6 +37051,12 @@
           <t>2-s2.0-84926634059</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -36302,6 +37278,12 @@
           <t>2-s2.0-84924358996</t>
         </is>
       </c>
+      <c r="BT163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -36520,6 +37502,12 @@
         <is>
           <t>2-s2.0-84922375899</t>
         </is>
+      </c>
+      <c r="BT164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -36732,6 +37720,12 @@
           <t>2-s2.0-84949640467</t>
         </is>
       </c>
+      <c r="BT165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -36943,6 +37937,12 @@
           <t>2-s2.0-84943523268</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -37168,6 +38168,12 @@
           <t>2-s2.0-84937475163</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -37389,6 +38395,12 @@
           <t>2-s2.0-84930800575</t>
         </is>
       </c>
+      <c r="BT168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -37611,6 +38623,12 @@
         <is>
           <t>2-s2.0-84924354289</t>
         </is>
+      </c>
+      <c r="BT169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -37825,6 +38843,12 @@
           <t>2-s2.0-84941777116</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -38038,6 +39062,12 @@
           <t>2-s2.0-84930797155</t>
         </is>
       </c>
+      <c r="BT171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -38260,6 +39290,12 @@
         <is>
           <t>2-s2.0-84928966396</t>
         </is>
+      </c>
+      <c r="BT172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -38473,6 +39509,12 @@
         <is>
           <t>2-s2.0-84926615410</t>
         </is>
+      </c>
+      <c r="BT173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -38669,6 +39711,12 @@
       <c r="BQ174" t="inlineStr"/>
       <c r="BR174" t="inlineStr"/>
       <c r="BS174" t="inlineStr"/>
+      <c r="BT174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -38876,6 +39924,12 @@
           <t>2-s2.0-84921030692</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
